--- a/documentation/draft/team/project-team.xlsx
+++ b/documentation/draft/team/project-team.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
-    <sheet name="Status" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Product manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,26 +61,6 @@
   </si>
   <si>
     <t>Additional members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +442,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,53 +526,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>